--- a/hanehalki_buyukluk.xlsx
+++ b/hanehalki_buyukluk.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatice.altunsaray\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtgun\OneDrive\Belgeler\GitHub\muy665-bahar2024-takim-what-R-we-doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E321A6-DC19-43BC-B2D7-C1BFE9489004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -174,9 +175,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,28 +456,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,7 +493,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -509,7 +509,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -541,7 +541,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -549,7 +549,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -557,7 +557,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -565,7 +565,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -573,7 +573,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -581,7 +581,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -597,7 +597,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -605,7 +605,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -613,7 +613,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -621,7 +621,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -629,7 +629,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -637,7 +637,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -645,7 +645,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -653,7 +653,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -661,7 +661,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -669,7 +669,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -677,7 +677,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -685,7 +685,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -693,7 +693,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -701,7 +701,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -709,7 +709,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -725,7 +725,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -741,7 +741,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -757,7 +757,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -765,7 +765,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -789,7 +789,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
